--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>88.84215833333333</v>
+        <v>0.1949616666666667</v>
       </c>
       <c r="N2">
-        <v>266.526475</v>
+        <v>0.584885</v>
       </c>
       <c r="O2">
-        <v>0.9957536651060204</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9957536651060206</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>16352.52670746736</v>
+        <v>12.46023062634389</v>
       </c>
       <c r="R2">
-        <v>147172.7403672062</v>
+        <v>112.142075637095</v>
       </c>
       <c r="S2">
-        <v>0.648285996375342</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="T2">
-        <v>0.6482859963753423</v>
+        <v>0.4067926910433549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>57.4434</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>172.3302</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.584885</v>
       </c>
       <c r="O3">
-        <v>0.00218515396046691</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.00218515396046691</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>35.88516894352445</v>
+        <v>11.199261003</v>
       </c>
       <c r="R3">
-        <v>322.96652049172</v>
+        <v>100.793349027</v>
       </c>
       <c r="S3">
-        <v>0.001422645742754043</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="T3">
-        <v>0.001422645742754044</v>
+        <v>0.365625457323019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,418 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>107.266125</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1839006666666667</v>
+        <v>0.1949616666666667</v>
       </c>
       <c r="N4">
-        <v>0.551702</v>
+        <v>0.584885</v>
       </c>
       <c r="O4">
-        <v>0.002061180933512596</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.002061180933512597</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>33.84925152206045</v>
+        <v>6.970927502291667</v>
       </c>
       <c r="R4">
-        <v>304.643263698544</v>
+        <v>62.738347520625</v>
       </c>
       <c r="S4">
-        <v>0.001341933032252308</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="T4">
-        <v>0.001341933032252308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>57.4434</v>
-      </c>
-      <c r="H5">
-        <v>172.3302</v>
-      </c>
-      <c r="I5">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J5">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>88.84215833333333</v>
-      </c>
-      <c r="N5">
-        <v>266.526475</v>
-      </c>
-      <c r="O5">
-        <v>0.9957536651060204</v>
-      </c>
-      <c r="P5">
-        <v>0.9957536651060206</v>
-      </c>
-      <c r="Q5">
-        <v>5103.395638005</v>
-      </c>
-      <c r="R5">
-        <v>45930.560742045</v>
-      </c>
-      <c r="S5">
-        <v>0.2023210226325968</v>
-      </c>
-      <c r="T5">
-        <v>0.2023210226325969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>57.4434</v>
-      </c>
-      <c r="H6">
-        <v>172.3302</v>
-      </c>
-      <c r="I6">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J6">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1949616666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.584885</v>
-      </c>
-      <c r="O6">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="P6">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="Q6">
-        <v>11.199261003</v>
-      </c>
-      <c r="R6">
-        <v>100.793349027</v>
-      </c>
-      <c r="S6">
-        <v>0.0004439879052257994</v>
-      </c>
-      <c r="T6">
-        <v>0.0004439879052257994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>57.4434</v>
-      </c>
-      <c r="H7">
-        <v>172.3302</v>
-      </c>
-      <c r="I7">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="J7">
-        <v>0.2031838091312023</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1839006666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.551702</v>
-      </c>
-      <c r="O7">
-        <v>0.002061180933512596</v>
-      </c>
-      <c r="P7">
-        <v>0.002061180933512597</v>
-      </c>
-      <c r="Q7">
-        <v>10.5638795556</v>
-      </c>
-      <c r="R7">
-        <v>95.07491600040001</v>
-      </c>
-      <c r="S7">
-        <v>0.0004187985933796968</v>
-      </c>
-      <c r="T7">
-        <v>0.0004187985933796969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H8">
-        <v>123.631001</v>
-      </c>
-      <c r="I8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J8">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>88.84215833333333</v>
-      </c>
-      <c r="N8">
-        <v>266.526475</v>
-      </c>
-      <c r="O8">
-        <v>0.9957536651060204</v>
-      </c>
-      <c r="P8">
-        <v>0.9957536651060206</v>
-      </c>
-      <c r="Q8">
-        <v>3661.214988583497</v>
-      </c>
-      <c r="R8">
-        <v>32950.93489725148</v>
-      </c>
-      <c r="S8">
-        <v>0.1451466460980814</v>
-      </c>
-      <c r="T8">
-        <v>0.1451466460980815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H9">
-        <v>123.631001</v>
-      </c>
-      <c r="I9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J9">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1949616666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.584885</v>
-      </c>
-      <c r="O9">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="P9">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="Q9">
-        <v>8.03443533554278</v>
-      </c>
-      <c r="R9">
-        <v>72.309918019885</v>
-      </c>
-      <c r="S9">
-        <v>0.0003185203124870667</v>
-      </c>
-      <c r="T9">
-        <v>0.0003185203124870668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>41.21033366666667</v>
-      </c>
-      <c r="H10">
-        <v>123.631001</v>
-      </c>
-      <c r="I10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="J10">
-        <v>0.1457656157184491</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1839006666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.551702</v>
-      </c>
-      <c r="O10">
-        <v>0.002061180933512596</v>
-      </c>
-      <c r="P10">
-        <v>0.002061180933512597</v>
-      </c>
-      <c r="Q10">
-        <v>7.578607834855779</v>
-      </c>
-      <c r="R10">
-        <v>68.20747051370201</v>
-      </c>
-      <c r="S10">
-        <v>0.0003004493078805914</v>
-      </c>
-      <c r="T10">
-        <v>0.0003004493078805915</v>
+        <v>0.2275818516336262</v>
       </c>
     </row>
   </sheetData>
